--- a/Team-Data/2011-12/3-21-2011-12.xlsx
+++ b/Team-Data/2011-12/3-21-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I2" t="n">
         <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
@@ -699,73 +766,73 @@
         <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P2" t="n">
         <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.728</v>
+        <v>0.724</v>
       </c>
       <c r="R2" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
         <v>21.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC2" t="n">
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -774,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -789,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -798,19 +865,19 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>22</v>
@@ -819,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -980,22 +1047,22 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1171,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.796</v>
+        <v>0.792</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1239,31 +1306,31 @@
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
         <v>15.8</v>
       </c>
       <c r="P5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R5" t="n">
         <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
         <v>46.2</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V5" t="n">
         <v>14</v>
@@ -1278,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
         <v>17.8</v>
@@ -1287,7 +1354,7 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1308,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1320,13 +1387,13 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1335,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
       </c>
       <c r="AU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="n">
         <v>4</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1353,10 +1420,10 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I6" t="n">
         <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
         <v>0.428</v>
@@ -1424,37 +1491,37 @@
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.704</v>
+        <v>0.703</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
@@ -1463,16 +1530,16 @@
         <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,19 +1551,19 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1505,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,16 +1584,16 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1544,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1603,10 +1670,10 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O7" t="n">
         <v>15.6</v>
@@ -1615,43 +1682,43 @@
         <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>19.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1660,22 +1727,22 @@
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
         <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,31 +1751,31 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1720,16 +1787,16 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
       <c r="O8" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P8" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>5.2</v>
@@ -1824,49 +1891,49 @@
         <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,16 +1948,16 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J9" t="n">
         <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
@@ -2009,28 +2076,28 @@
         <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.8</v>
+        <v>90.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2057,22 +2124,22 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>27</v>
@@ -2084,13 +2151,13 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
         <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -2122,91 +2189,91 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.456</v>
       </c>
       <c r="L10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O10" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P10" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R10" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2218,10 +2285,10 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2230,22 +2297,22 @@
         <v>6</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ10" t="n">
         <v>12</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2254,13 +2321,13 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>4</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2439,22 +2506,22 @@
         <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
@@ -2636,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
         <v>81.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.7</v>
@@ -2725,49 +2792,49 @@
         <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2782,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,13 +2858,13 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT13" t="n">
         <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2806,10 +2873,10 @@
         <v>13</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="BC13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H14" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
         <v>79.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M14" t="n">
         <v>17.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.312</v>
+        <v>0.308</v>
       </c>
       <c r="O14" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.754</v>
@@ -2895,7 +2962,7 @@
         <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
         <v>45.5</v>
@@ -2904,7 +2971,7 @@
         <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
         <v>6.1</v>
@@ -2913,22 +2980,22 @@
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,13 +3010,13 @@
         <v>4</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,19 +3025,19 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
         <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>11</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3110,28 +3177,28 @@
         <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
         <v>9</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3173,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>8.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3304,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3358,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3498,7 +3565,7 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
@@ -3507,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3525,13 +3592,13 @@
         <v>21</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.479</v>
+        <v>0.489</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,7 +3663,7 @@
         <v>35.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
@@ -3605,28 +3672,28 @@
         <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P18" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>32.1</v>
       </c>
       <c r="T18" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U18" t="n">
         <v>19.4</v>
@@ -3641,7 +3708,7 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
         <v>18.9</v>
@@ -3653,7 +3720,7 @@
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" t="n">
         <v>2</v>
@@ -3662,19 +3729,19 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3683,19 +3750,19 @@
         <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3707,19 +3774,19 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.313</v>
+        <v>0.319</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,10 +3845,10 @@
         <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
         <v>8.300000000000001</v>
@@ -3790,28 +3857,28 @@
         <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.774</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
         <v>27.9</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V19" t="n">
         <v>15.4</v>
@@ -3820,22 +3887,22 @@
         <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.5</v>
+        <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
         <v>2</v>
@@ -3856,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3880,22 +3947,22 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU19" t="n">
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.239</v>
+        <v>0.244</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
         <v>79</v>
       </c>
       <c r="K20" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="N20" t="n">
         <v>0.324</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
         <v>0.757</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V20" t="n">
         <v>15.3</v>
@@ -4002,46 +4069,46 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4050,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,34 +4126,34 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -4124,106 +4191,106 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.489</v>
+        <v>0.478</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J21" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
         <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W21" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA21" t="n">
         <v>22.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>9</v>
@@ -4232,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4244,13 +4311,13 @@
         <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>22</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.745</v>
+        <v>0.739</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
         <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O22" t="n">
         <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
         <v>18.3</v>
@@ -4369,7 +4436,7 @@
         <v>7.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4429,13 +4496,13 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O23" t="n">
         <v>15.4</v>
       </c>
       <c r="P23" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
         <v>0.644</v>
@@ -4533,13 +4600,13 @@
         <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
         <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
         <v>15.5</v>
@@ -4554,16 +4621,16 @@
         <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA23" t="n">
         <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4602,7 +4669,7 @@
         <v>27</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,10 +4678,10 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="O24" t="n">
         <v>13.3</v>
@@ -4715,52 +4782,52 @@
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T24" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="AB24" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG24" t="n">
         <v>11</v>
       </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>8</v>
@@ -4805,22 +4872,22 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O25" t="n">
         <v>15.6</v>
@@ -4891,28 +4958,28 @@
         <v>20.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.4</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
@@ -4921,16 +4988,16 @@
         <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4948,13 +5015,13 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4963,28 +5030,28 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>26</v>
@@ -4993,13 +5060,13 @@
         <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -5130,7 +5197,7 @@
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,13 +5209,13 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
@@ -5166,22 +5233,22 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5309,7 +5376,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5324,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5342,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5360,7 +5427,7 @@
         <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.467</v>
@@ -5428,34 +5495,34 @@
         <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
         <v>21.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T28" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
         <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
@@ -5464,19 +5531,19 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5494,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5539,10 +5606,10 @@
         <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R29" t="n">
         <v>10.2</v>
@@ -5634,7 +5701,7 @@
         <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5646,19 +5713,19 @@
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.3</v>
+        <v>-4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5688,22 +5755,22 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>27</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
@@ -5712,7 +5779,7 @@
         <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5852,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5861,7 +5928,7 @@
         <v>5</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5888,13 +5955,13 @@
         <v>16</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
         <v>12</v>
       </c>
       <c r="AV30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5912,7 +5979,7 @@
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.244</v>
+        <v>0.227</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>83.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L31" t="n">
         <v>5.1</v>
@@ -5974,16 +6041,16 @@
         <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
@@ -5992,13 +6059,13 @@
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>8</v>
@@ -6010,34 +6077,34 @@
         <v>4.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>4</v>
@@ -6052,40 +6119,40 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2011-12</t>
+          <t>2012-03-21</t>
         </is>
       </c>
     </row>
